--- a/Data/collapsed database manual cases/yucatan_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/yucatan_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/yucatan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{17DBE924-5DF7-7C49-9773-4779DDC90A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42343CFA-EAE8-A540-A4A3-04B15418B448}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C495E128-1CC5-E14E-A5EC-5BFF2454F5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19880" yWindow="0" windowWidth="15960" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8870" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9141" uniqueCount="1890">
   <si>
     <t>uniqueid</t>
   </si>
@@ -5417,6 +5417,282 @@
   </si>
   <si>
     <t>https://solyucatan.mx/escandaloso-despilfarro/</t>
+  </si>
+  <si>
+    <t>PAN_MC</t>
+  </si>
+  <si>
+    <t>DORCA GRISELDA CHAN MAY</t>
+  </si>
+  <si>
+    <t>ELBIER ANTONIO SALAZAR CHI</t>
+  </si>
+  <si>
+    <t>MANUEL JESUS CHI CHIN</t>
+  </si>
+  <si>
+    <t>CARLOS VALENTIN PECH DZIB</t>
+  </si>
+  <si>
+    <t>RICARDO ORDOÑEZ CHAN</t>
+  </si>
+  <si>
+    <t>JORGE ABRAHAM JIMENEZ IUIT</t>
+  </si>
+  <si>
+    <t>ERIK CANDELARIO ALCOCER ESTRADA</t>
+  </si>
+  <si>
+    <t>LIZBETH MARIA CAUICH PUCH</t>
+  </si>
+  <si>
+    <t>FELIPE AUDOMARO MAY ITZA</t>
+  </si>
+  <si>
+    <t>RAFAEL GERARDO MONTALVO MATA</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC</t>
+  </si>
+  <si>
+    <t>DIEGO JOSE AVILA ROMERO</t>
+  </si>
+  <si>
+    <t>ARON DE JESUS INTERIAN BOJORQUEZ</t>
+  </si>
+  <si>
+    <t>RUBY ALEJANDRINA SOSA PEREZ</t>
+  </si>
+  <si>
+    <t>LETICIA MARLENE CAMELO HUCHIN</t>
+  </si>
+  <si>
+    <t>YULMA YUMIRA GARCIA CASANOVA</t>
+  </si>
+  <si>
+    <t>MARTA LETICIA NUÑEZ POLANCO</t>
+  </si>
+  <si>
+    <t>SANDRA GUADALUPE TEC YAM</t>
+  </si>
+  <si>
+    <t>REINA ISABEL YAM</t>
+  </si>
+  <si>
+    <t>FABIOLA LOEZA NOVELO</t>
+  </si>
+  <si>
+    <t>GERARDO ALBERTO CONCHA NAVARRETE</t>
+  </si>
+  <si>
+    <t>MARIA ANTONIA ZAPATA MAAS</t>
+  </si>
+  <si>
+    <t>LUZ MARIA AGUILAR CRUZ</t>
+  </si>
+  <si>
+    <t>SEYDI MARICRUZ CANUL UICAB</t>
+  </si>
+  <si>
+    <t>MARIO ALBERTO GONZALEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>GUADALUPE MARISOL PECH BASTO</t>
+  </si>
+  <si>
+    <t>ABIGAIL DE GUADALUPE PEREZ VAZQUEZ</t>
+  </si>
+  <si>
+    <t>HISELLE DEL CARMEN DIAZ DEL CASTILLO CANCHE</t>
+  </si>
+  <si>
+    <t>PEDRO ALCANTARA PECH ARAGON</t>
+  </si>
+  <si>
+    <t>MIRIAM DEL SOCORRO ROSADO KOH</t>
+  </si>
+  <si>
+    <t>MARIA INES PACHECO POOT</t>
+  </si>
+  <si>
+    <t>JUANA MARIA BALTAZAR SANTOS</t>
+  </si>
+  <si>
+    <t>PT_MORENA</t>
+  </si>
+  <si>
+    <t>VICTOR JOSE CHAN CEN</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>ENRIQUE DE JESUS AYORA SOSA</t>
+  </si>
+  <si>
+    <t>JOSE FLAVIO MUKUL MEDINA</t>
+  </si>
+  <si>
+    <t>JOSE ASUNCION RAMIREZ PERERA</t>
+  </si>
+  <si>
+    <t>AMILCAR ABRICEL REYES MARIN</t>
+  </si>
+  <si>
+    <t>JUAN FRANCISCO PEREZ KOH</t>
+  </si>
+  <si>
+    <t>SANDRA RAQUEL PECH CHI</t>
+  </si>
+  <si>
+    <t>MARIA ELOISA CASTRO CONTRERAS</t>
+  </si>
+  <si>
+    <t>MARIA MINELIA DE JESUS UICAB CEL</t>
+  </si>
+  <si>
+    <t>ALMA ERNESTINA MANZANERO POLANCO</t>
+  </si>
+  <si>
+    <t>AIDA MARIA DE JESUS FERNANDEZ GONGORA</t>
+  </si>
+  <si>
+    <t>JORGE RICARDO KUH MENDEZ</t>
+  </si>
+  <si>
+    <t>GASPAR ARIEL PINTO OJEDA</t>
+  </si>
+  <si>
+    <t>LOURDES MARIA TAH MAAS</t>
+  </si>
+  <si>
+    <t>GENRI ALBERTO PACAB HERRERA</t>
+  </si>
+  <si>
+    <t>LORENA PATRICIA GAMBOA MAY</t>
+  </si>
+  <si>
+    <t>PAN_PRD_PANAL</t>
+  </si>
+  <si>
+    <t>MARTHA EUGENIA MENA ALCOCER</t>
+  </si>
+  <si>
+    <t>OMAR ADIEL MENA NARVAEZ</t>
+  </si>
+  <si>
+    <t>GALDINO POOT MORENO</t>
+  </si>
+  <si>
+    <t>GABRIELA DE JESUS POOL CAMELO</t>
+  </si>
+  <si>
+    <t>GASPAR VENTURA CISNEROS POLANCO</t>
+  </si>
+  <si>
+    <t>MARIA TERESA DE JESUS YERVEZ VERA</t>
+  </si>
+  <si>
+    <t>PRI_PRD</t>
+  </si>
+  <si>
+    <t>SANDRA MARISOL GONGORA SALAS</t>
+  </si>
+  <si>
+    <t>https://sipse.com/elecciones-2018/yucatan/pri-ventaja-elecciones-yucatan-municipios-302904.html</t>
+  </si>
+  <si>
+    <t>https://x.com/PANOaxaca/status/1291524893381726209</t>
+  </si>
+  <si>
+    <t>https://panyucatan.org.mx/wp-content/uploads/2023/12/ACUERDO-CEPEY014-DECLARATORIA-DE-PROCEDENCIA-DE-REGISTRO-DE-PRECANDIDATURAS-PARA-DIVERSOS-CARGOS-POR-EL-PRINCIPIO-DE-MR-DEL-PAN-YUCATAN..pdf</t>
+  </si>
+  <si>
+    <t>https://www.yucatan.com.mx/yucatan/2018/07/07/el-pan-gana-duelo-de-exediles-en-huhi.html</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PanYucatan/posts/muchas-felicidades-a-alberto-padrón-romero-alcalde-de-hunucmá-quien-festeja-su-c/2417350161622516/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.iepac.mx/public/micrositios/resultados-electorales/procesos-electorales/2021/CANDIDATURAS_ELECTAS_2021-30-08-2021.xlsx&amp;ved=2ahUKEwji0cCzwO2SAxVTLkQIHYZWNbIQFnoECBwQAQ&amp;usg=AOvVaw2zoIyL-QldavIGuZMAG2zY</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PanYucatan/photos/desde-el-comité-directivo-estatal-felicitamos-a-ricardo-ordóñez-alcalde-de-opich/3204534902904034/</t>
+  </si>
+  <si>
+    <t>https://www.rnm.mx/Documents/RNM/YUCATAN_PANABA_ListadoNominal.pdf</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://m.facebook.com/PanYucatan/photos/muchas-felicidades-a-la-alcaldesa-de-sey%25C3%25A9-lizbeth-cauich-puch-con-motivo-de-su-c/3378693905488132/&amp;ved=2ahUKEwjQoMO6we2SAxWgJEQIHRo8OyYQFnoECB0QAQ&amp;usg=AOvVaw2J2T1uHlFAPKQTtqJY4Bun</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;url=https%3A%2F%2Fwww.instagram.com%2Fp%2FCj5h-sCOG_Z%2F&amp;ved=0CBoQjhxqFwoTCPiD-M7B7ZIDFQAAAAAdAAAAABAH&amp;opi=89978449</t>
+  </si>
+  <si>
+    <t>https://app.sabervotar.mx/candidato/rafael-gerardo-montalvo-mata/diputados-locales-mayoria/yucatan</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.facebook.com/PanYucatan/posts/2185190554838479/&amp;ved=2ahUKEwjdoorgwe2SAxUDJe8CHaiMCOIQFnoECB8QAQ&amp;usg=AOvVaw1RmNW8dG8qT2hlZI5_X7Pp</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.instagram.com/p/CikuLRHu4Cb/&amp;ved=2ahUKEwid-Nfmwe2SAxWIke4BHft8C6IQh-wKegQIHBAE&amp;usg=AOvVaw2fgCugJ24qVHcdSGvI1rNQ</t>
+  </si>
+  <si>
+    <t>https://app.sabervotar.mx/candidato/diego-jose-avila-romero/diputados-locales-mayoria/yucatan</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;url=https%3A%2F%2Fwww.facebook.com%2Fp%2FRuby-Sosa-P%25C3%25A9rez-100064921122691%2F&amp;ved=0CBoQjhxqFwoTCMjjueXC7ZIDFQAAAAAdAAAAABAH&amp;opi=89978449</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://pri.org.mx/bancoinformacion/Files/Archivos/Excel/30260-10-15_10_14.xlsx&amp;ved=2ahUKEwjAo9L1wu2SAxXBJEQIHTjJDAMQFnoECB4QAQ&amp;usg=AOvVaw0YMCEhU-UGx9rYvff1czv4</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://pri.org.mx/bancoinformacion/Files/Archivos/Excel/30260-7-14_28_35.xlsx&amp;ved=2ahUKEwjInefUw-2SAxX2J0QIHViBLO4QFnoECBwQAQ&amp;usg=AOvVaw3VrFRnhFYiRshi63-9ctQr</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.elfinanciero.com.mx/nacional/muere-raymunda-che-pech-alcaldesa-de-kantunil-yucatan/&amp;ved=2ahUKEwjWqbfSxO2SAxWkHkQIHWyLAdMQFnoECCMQAQ&amp;usg=AOvVaw1ktxw7ufmSjd9OM2BAqQoz</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://pri.org.mx/bancoinformacion/files/Archivos/Excel/37382-25-13_16_47.xlsx&amp;ved=2ahUKEwjCy5Tnxu2SAxU0IkQIHcW6Kh8QFnoECBsQAQ&amp;usg=AOvVaw1VTi0uOBvUWsGFUVBXBdHR</t>
+  </si>
+  <si>
+    <t>https://laviejaguardia.mx/noticias/fermin-sosa-aventaja-en-izamal</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://pri.org.mx/bancoinformacion/Files/Archivos/Excel/30260-8-14_24_11.xlsx&amp;ved=2ahUKEwjk05mHx-2SAxWELUQIHcdsMogQFnoECB4QAQ&amp;usg=AOvVaw1XVukcnXFIxWqJxspFeY5E</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://grillodeyucatan.com/2025/05/01/pelean-por-los-bisnes-sindica-de-espita-acusa-al-alcalde-de-corrupto-y-prepotente/&amp;ved=2ahUKEwj0r4ahx-2SAxV-KkQIHd0iEcAQFnoECB0QAQ&amp;usg=AOvVaw1X0JaiDqFK7lCmxRpMTFvw</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.facebook.com/LiliAraujoLara/mentions/&amp;ved=2ahUKEwjhsumrx-2SAxWxH0QIHXFiJhIQFnoECB0QAQ&amp;usg=AOvVaw2eqcFFceznhoSvm16mTKHk</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.instagram.com/p/DBOlPY4MtNJ/&amp;ved=2ahUKEwjJ3bm-x-2SAxXZBEQIHanbH1cQFnoECCcQAQ&amp;usg=AOvVaw0pyHkhQB86b76ysuLlmNp4</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;url=https%3A%2F%2Fwww.facebook.com%2FAmpyac.Oficial%2Fposts%2Fdesde-la-ampyac-env%25C3%25ADamos-una-afectuosa-felicitaci%25C3%25B3n-a-jos%25C3%25A9-ram%25C3%25ADrez-perera-alcald%2F390020406960506%2F&amp;ved=0CBoQjhxqFwoTCKDJy9bI7ZIDFQAAAAAdAAAAABAe&amp;opi=89978449</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.facebook.com/PanYucatan/posts/felicitamos-al-alcalde-amilcar-reyes-marin-de-chicxulubpueblo-por-su-primer-info/1357577459063580/&amp;ved=2ahUKEwiV1t_fyO2SAxXYJEQIHSEWDbQQFnoECCQQAQ&amp;usg=AOvVaw3SZbGhkZJjQIS9ethKibCF</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;url=https%3A%2F%2Fwww.facebook.com%2FPanYucatan%2Fposts%2Fenviamos-una-felicitaci%25C3%25B3n-a-juan-francisco-p%25C3%25A9rez-koh-alcalde-de-dzit%25C3%25A1s-qui%25C3%25A9n-hoy%2F1097977865023542%2F&amp;ved=0CBoQjhxqFwoTCPDDkOzI7ZIDFQAAAAAdAAAAABAH&amp;opi=89978449</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;url=https%3A%2F%2Fwww.facebook.com%2FAmpyac.Oficial%2F&amp;ved=0CBoQjhxqFwoTCPDplJ7J7ZIDFQAAAAAdAAAAABAH&amp;opi=89978449</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;url=https%3A%2F%2Fwww.facebook.com%2F100069102974331%2F&amp;ved=0CBoQjhxqFwoTCMDTr7XJ7ZIDFQAAAAAdAAAAABA5&amp;opi=89978449</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://x.com/PanYucatan/status/1531265321922863104&amp;ved=2ahUKEwjcxOXBye2SAxWfM0QIHYLbAXYQFnoECCMQAQ&amp;usg=AOvVaw1LGp80atwJ6Prt4P1GXnDK</t>
+  </si>
+  <si>
+    <t>https://sumarioyucatan.com/alcaldes-panistas-se-organizan-para-fortalecer-los-gobiernos-municipales/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.facebook.com/photo.php%3Ffbid%3D1063224425165553%26id%3D100044340163560%26set%3Da.572787440875923&amp;ved=2ahUKEwi3uOLeye2SAxWoJ0QIHT-uN-UQFnoECCUQAQ&amp;usg=AOvVaw0zvY38pAuzqK39-BnNRLdB</t>
   </si>
 </sst>
 </file>
@@ -5534,10 +5810,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5828,10 +6100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S840"/>
+  <dimension ref="A1:S912"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I676" sqref="I676"/>
+    <sheetView tabSelected="1" topLeftCell="G891" zoomScale="137" workbookViewId="0">
+      <selection activeCell="I909" sqref="I909"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44029,6 +44301,1395 @@
         <v>48</v>
       </c>
     </row>
+    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>31001</v>
+      </c>
+      <c r="B841">
+        <v>2021</v>
+      </c>
+      <c r="E841" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F841" t="s">
+        <v>30</v>
+      </c>
+      <c r="H841" t="s">
+        <v>29</v>
+      </c>
+      <c r="I841" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>31010</v>
+      </c>
+      <c r="B842">
+        <v>2021</v>
+      </c>
+      <c r="E842" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F842" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H842" t="s">
+        <v>29</v>
+      </c>
+      <c r="I842" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>31018</v>
+      </c>
+      <c r="B843">
+        <v>2021</v>
+      </c>
+      <c r="E843" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F843" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H843" t="s">
+        <v>29</v>
+      </c>
+      <c r="I843" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>31036</v>
+      </c>
+      <c r="B844">
+        <v>2021</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F844" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H844" t="s">
+        <v>29</v>
+      </c>
+      <c r="I844" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>31037</v>
+      </c>
+      <c r="B845">
+        <v>2021</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F845" t="s">
+        <v>657</v>
+      </c>
+      <c r="H845" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I845" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>31038</v>
+      </c>
+      <c r="B846">
+        <v>2021</v>
+      </c>
+      <c r="E846" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F846" t="s">
+        <v>676</v>
+      </c>
+      <c r="H846" t="s">
+        <v>29</v>
+      </c>
+      <c r="I846" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>31044</v>
+      </c>
+      <c r="B847">
+        <v>2021</v>
+      </c>
+      <c r="E847" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F847" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H847" t="s">
+        <v>29</v>
+      </c>
+      <c r="I847" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="848" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>31055</v>
+      </c>
+      <c r="B848">
+        <v>2021</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F848" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H848" t="s">
+        <v>29</v>
+      </c>
+      <c r="I848" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>31057</v>
+      </c>
+      <c r="B849">
+        <v>2021</v>
+      </c>
+      <c r="E849" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F849" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H849" t="s">
+        <v>29</v>
+      </c>
+      <c r="I849" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>31061</v>
+      </c>
+      <c r="B850">
+        <v>2021</v>
+      </c>
+      <c r="E850" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F850" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H850" t="s">
+        <v>29</v>
+      </c>
+      <c r="I850" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>31067</v>
+      </c>
+      <c r="B851">
+        <v>2021</v>
+      </c>
+      <c r="E851" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F851" t="s">
+        <v>1806</v>
+      </c>
+      <c r="H851" t="s">
+        <v>29</v>
+      </c>
+      <c r="I851" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>31076</v>
+      </c>
+      <c r="B852">
+        <v>2021</v>
+      </c>
+      <c r="E852" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F852" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H852" t="s">
+        <v>29</v>
+      </c>
+      <c r="I852" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>31077</v>
+      </c>
+      <c r="B853">
+        <v>2021</v>
+      </c>
+      <c r="E853" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F853" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H853" t="s">
+        <v>29</v>
+      </c>
+      <c r="I853" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>31089</v>
+      </c>
+      <c r="B854">
+        <v>2021</v>
+      </c>
+      <c r="E854" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F854" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H854" t="s">
+        <v>29</v>
+      </c>
+      <c r="I854" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>31106</v>
+      </c>
+      <c r="B855">
+        <v>2021</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F855" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H855" t="s">
+        <v>29</v>
+      </c>
+      <c r="I855" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>31056</v>
+      </c>
+      <c r="B856">
+        <v>2021</v>
+      </c>
+      <c r="E856" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F856" t="s">
+        <v>974</v>
+      </c>
+      <c r="H856" t="s">
+        <v>29</v>
+      </c>
+      <c r="I856" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>31079</v>
+      </c>
+      <c r="B857">
+        <v>2021</v>
+      </c>
+      <c r="E857" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F857" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H857" t="s">
+        <v>29</v>
+      </c>
+      <c r="I857" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>31047</v>
+      </c>
+      <c r="B858">
+        <v>2021</v>
+      </c>
+      <c r="E858" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F858" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H858" t="s">
+        <v>143</v>
+      </c>
+      <c r="I858" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>31005</v>
+      </c>
+      <c r="B859">
+        <v>2021</v>
+      </c>
+      <c r="E859" t="s">
+        <v>572</v>
+      </c>
+      <c r="F859" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H859" t="s">
+        <v>21</v>
+      </c>
+      <c r="I859" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>31008</v>
+      </c>
+      <c r="B860">
+        <v>2021</v>
+      </c>
+      <c r="E860" t="s">
+        <v>572</v>
+      </c>
+      <c r="F860" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H860" t="s">
+        <v>21</v>
+      </c>
+      <c r="I860" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>31011</v>
+      </c>
+      <c r="B861">
+        <v>2021</v>
+      </c>
+      <c r="E861" t="s">
+        <v>572</v>
+      </c>
+      <c r="F861" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H861" t="s">
+        <v>21</v>
+      </c>
+      <c r="I861" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>31012</v>
+      </c>
+      <c r="B862">
+        <v>2021</v>
+      </c>
+      <c r="E862" t="s">
+        <v>572</v>
+      </c>
+      <c r="F862" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H862" t="s">
+        <v>21</v>
+      </c>
+      <c r="I862" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>31039</v>
+      </c>
+      <c r="B863">
+        <v>2021</v>
+      </c>
+      <c r="E863" t="s">
+        <v>572</v>
+      </c>
+      <c r="F863" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H863" t="s">
+        <v>21</v>
+      </c>
+      <c r="I863" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>31042</v>
+      </c>
+      <c r="B864">
+        <v>2021</v>
+      </c>
+      <c r="E864" t="s">
+        <v>572</v>
+      </c>
+      <c r="F864" t="s">
+        <v>732</v>
+      </c>
+      <c r="H864" t="s">
+        <v>21</v>
+      </c>
+      <c r="I864" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>31069</v>
+      </c>
+      <c r="B865">
+        <v>2021</v>
+      </c>
+      <c r="E865" t="s">
+        <v>572</v>
+      </c>
+      <c r="F865" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H865" t="s">
+        <v>21</v>
+      </c>
+      <c r="I865" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>31070</v>
+      </c>
+      <c r="B866">
+        <v>2021</v>
+      </c>
+      <c r="E866" t="s">
+        <v>572</v>
+      </c>
+      <c r="F866" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H866" t="s">
+        <v>21</v>
+      </c>
+      <c r="I866" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>31075</v>
+      </c>
+      <c r="B867">
+        <v>2021</v>
+      </c>
+      <c r="E867" t="s">
+        <v>572</v>
+      </c>
+      <c r="F867" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H867" t="s">
+        <v>21</v>
+      </c>
+      <c r="I867" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>31094</v>
+      </c>
+      <c r="B868">
+        <v>2021</v>
+      </c>
+      <c r="E868" t="s">
+        <v>572</v>
+      </c>
+      <c r="F868" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H868" t="s">
+        <v>21</v>
+      </c>
+      <c r="I868" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>31095</v>
+      </c>
+      <c r="B869">
+        <v>2021</v>
+      </c>
+      <c r="E869" t="s">
+        <v>572</v>
+      </c>
+      <c r="F869" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H869" t="s">
+        <v>21</v>
+      </c>
+      <c r="I869" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>31015</v>
+      </c>
+      <c r="B870">
+        <v>2021</v>
+      </c>
+      <c r="E870" t="s">
+        <v>81</v>
+      </c>
+      <c r="F870" t="s">
+        <v>1820</v>
+      </c>
+      <c r="H870" t="s">
+        <v>21</v>
+      </c>
+      <c r="I870" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>31051</v>
+      </c>
+      <c r="B871">
+        <v>2021</v>
+      </c>
+      <c r="E871" t="s">
+        <v>81</v>
+      </c>
+      <c r="F871" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H871" t="s">
+        <v>21</v>
+      </c>
+      <c r="I871" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>31090</v>
+      </c>
+      <c r="B872">
+        <v>2021</v>
+      </c>
+      <c r="E872" t="s">
+        <v>81</v>
+      </c>
+      <c r="F872" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H872" t="s">
+        <v>21</v>
+      </c>
+      <c r="I872" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>31096</v>
+      </c>
+      <c r="B873">
+        <v>2021</v>
+      </c>
+      <c r="E873" t="s">
+        <v>81</v>
+      </c>
+      <c r="F873" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H873" t="s">
+        <v>21</v>
+      </c>
+      <c r="I873" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>31004</v>
+      </c>
+      <c r="B874">
+        <v>2021</v>
+      </c>
+      <c r="E874" t="s">
+        <v>291</v>
+      </c>
+      <c r="F874" t="s">
+        <v>1824</v>
+      </c>
+      <c r="H874" t="s">
+        <v>21</v>
+      </c>
+      <c r="I874" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>31006</v>
+      </c>
+      <c r="B875">
+        <v>2021</v>
+      </c>
+      <c r="E875" t="s">
+        <v>291</v>
+      </c>
+      <c r="F875" t="s">
+        <v>129</v>
+      </c>
+      <c r="H875" t="s">
+        <v>21</v>
+      </c>
+      <c r="I875" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>31007</v>
+      </c>
+      <c r="B876">
+        <v>2021</v>
+      </c>
+      <c r="E876" t="s">
+        <v>291</v>
+      </c>
+      <c r="F876" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H876" t="s">
+        <v>21</v>
+      </c>
+      <c r="I876" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>31013</v>
+      </c>
+      <c r="B877">
+        <v>2021</v>
+      </c>
+      <c r="E877" t="s">
+        <v>291</v>
+      </c>
+      <c r="F877" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H877" t="s">
+        <v>21</v>
+      </c>
+      <c r="I877" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>31020</v>
+      </c>
+      <c r="B878">
+        <v>2021</v>
+      </c>
+      <c r="E878" t="s">
+        <v>291</v>
+      </c>
+      <c r="F878" t="s">
+        <v>364</v>
+      </c>
+      <c r="H878" t="s">
+        <v>21</v>
+      </c>
+      <c r="I878" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>31023</v>
+      </c>
+      <c r="B879">
+        <v>2021</v>
+      </c>
+      <c r="E879" t="s">
+        <v>291</v>
+      </c>
+      <c r="F879" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H879" t="s">
+        <v>154</v>
+      </c>
+      <c r="I879" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>31030</v>
+      </c>
+      <c r="B880">
+        <v>2021</v>
+      </c>
+      <c r="E880" t="s">
+        <v>291</v>
+      </c>
+      <c r="F880" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H880" t="s">
+        <v>21</v>
+      </c>
+      <c r="I880" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>31040</v>
+      </c>
+      <c r="B881">
+        <v>2021</v>
+      </c>
+      <c r="E881" t="s">
+        <v>291</v>
+      </c>
+      <c r="F881" t="s">
+        <v>706</v>
+      </c>
+      <c r="H881" t="s">
+        <v>21</v>
+      </c>
+      <c r="I881" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>31046</v>
+      </c>
+      <c r="B882">
+        <v>2021</v>
+      </c>
+      <c r="E882" t="s">
+        <v>291</v>
+      </c>
+      <c r="F882" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H882" t="s">
+        <v>21</v>
+      </c>
+      <c r="I882" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>31065</v>
+      </c>
+      <c r="B883">
+        <v>2021</v>
+      </c>
+      <c r="E883" t="s">
+        <v>291</v>
+      </c>
+      <c r="F883" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H883" t="s">
+        <v>21</v>
+      </c>
+      <c r="I883" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>31078</v>
+      </c>
+      <c r="B884">
+        <v>2021</v>
+      </c>
+      <c r="E884" t="s">
+        <v>291</v>
+      </c>
+      <c r="F884" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H884" t="s">
+        <v>21</v>
+      </c>
+      <c r="I884" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>31034</v>
+      </c>
+      <c r="B885">
+        <v>2021</v>
+      </c>
+      <c r="E885" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F885" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H885" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I885" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>31102</v>
+      </c>
+      <c r="B886">
+        <v>2021</v>
+      </c>
+      <c r="E886" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F886" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H886" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I886" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>31016</v>
+      </c>
+      <c r="B887">
+        <v>2021</v>
+      </c>
+      <c r="E887" t="s">
+        <v>61</v>
+      </c>
+      <c r="F887" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H887" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>31011</v>
+      </c>
+      <c r="B888">
+        <v>2024</v>
+      </c>
+      <c r="E888" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F888" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H888" t="s">
+        <v>29</v>
+      </c>
+      <c r="I888" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>31020</v>
+      </c>
+      <c r="B889">
+        <v>2024</v>
+      </c>
+      <c r="E889" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F889" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H889" t="s">
+        <v>29</v>
+      </c>
+      <c r="I889" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>31030</v>
+      </c>
+      <c r="B890">
+        <v>2024</v>
+      </c>
+      <c r="E890" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F890" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H890" t="s">
+        <v>29</v>
+      </c>
+      <c r="I890" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>31039</v>
+      </c>
+      <c r="B891">
+        <v>2024</v>
+      </c>
+      <c r="E891" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F891" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H891" t="s">
+        <v>29</v>
+      </c>
+      <c r="I891" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>31044</v>
+      </c>
+      <c r="B892">
+        <v>2024</v>
+      </c>
+      <c r="E892" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F892" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H892" t="s">
+        <v>29</v>
+      </c>
+      <c r="I892" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>31049</v>
+      </c>
+      <c r="B893">
+        <v>2024</v>
+      </c>
+      <c r="E893" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F893" t="s">
+        <v>851</v>
+      </c>
+      <c r="H893" t="s">
+        <v>29</v>
+      </c>
+      <c r="I893" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>31053</v>
+      </c>
+      <c r="B894">
+        <v>2024</v>
+      </c>
+      <c r="E894" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F894" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H894" t="s">
+        <v>29</v>
+      </c>
+      <c r="I894" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>31060</v>
+      </c>
+      <c r="B895">
+        <v>2024</v>
+      </c>
+      <c r="E895" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F895" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H895" t="s">
+        <v>29</v>
+      </c>
+      <c r="I895" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>31064</v>
+      </c>
+      <c r="B896">
+        <v>2024</v>
+      </c>
+      <c r="E896" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F896" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H896" t="s">
+        <v>29</v>
+      </c>
+      <c r="I896" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>31074</v>
+      </c>
+      <c r="B897">
+        <v>2024</v>
+      </c>
+      <c r="E897" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F897" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H897" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>31075</v>
+      </c>
+      <c r="B898">
+        <v>2024</v>
+      </c>
+      <c r="E898" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F898" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H898" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>31097</v>
+      </c>
+      <c r="B899">
+        <v>2024</v>
+      </c>
+      <c r="E899" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F899" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H899" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>31100</v>
+      </c>
+      <c r="B900">
+        <v>2024</v>
+      </c>
+      <c r="E900" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F900" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H900" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>31103</v>
+      </c>
+      <c r="B901">
+        <v>2024</v>
+      </c>
+      <c r="E901" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F901" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H901" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>31104</v>
+      </c>
+      <c r="B902">
+        <v>2024</v>
+      </c>
+      <c r="E902" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F902" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H902" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>31042</v>
+      </c>
+      <c r="B903">
+        <v>2024</v>
+      </c>
+      <c r="E903" t="s">
+        <v>229</v>
+      </c>
+      <c r="F903" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H903" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>31032</v>
+      </c>
+      <c r="B904">
+        <v>2024</v>
+      </c>
+      <c r="E904" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F904" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H904" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>31057</v>
+      </c>
+      <c r="B905">
+        <v>2024</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F905" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H905" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>31066</v>
+      </c>
+      <c r="B906">
+        <v>2024</v>
+      </c>
+      <c r="E906" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F906" t="s">
+        <v>1852</v>
+      </c>
+      <c r="H906" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>31070</v>
+      </c>
+      <c r="B907">
+        <v>2024</v>
+      </c>
+      <c r="E907" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F907" t="s">
+        <v>1853</v>
+      </c>
+      <c r="H907" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>31101</v>
+      </c>
+      <c r="B908">
+        <v>2024</v>
+      </c>
+      <c r="E908" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F908" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H908" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>31073</v>
+      </c>
+      <c r="B909">
+        <v>2024</v>
+      </c>
+      <c r="E909" t="s">
+        <v>572</v>
+      </c>
+      <c r="F909" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H909" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>31005</v>
+      </c>
+      <c r="B910">
+        <v>2024</v>
+      </c>
+      <c r="E910" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F910" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H910" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>31013</v>
+      </c>
+      <c r="B911">
+        <v>2024</v>
+      </c>
+      <c r="E911" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F911" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H911" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>31036</v>
+      </c>
+      <c r="B912">
+        <v>2024</v>
+      </c>
+      <c r="E912" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F912" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H912" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S840" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">

--- a/Data/collapsed database manual cases/yucatan_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/yucatan_collapsed_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C495E128-1CC5-E14E-A5EC-5BFF2454F5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F4D08-4A9A-D240-9F96-592E999CA9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19880" yWindow="0" windowWidth="15960" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19880" yWindow="500" windowWidth="15960" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6102,8 +6102,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S912"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G891" zoomScale="137" workbookViewId="0">
-      <selection activeCell="I909" sqref="I909"/>
+    <sheetView tabSelected="1" topLeftCell="D886" zoomScale="137" workbookViewId="0">
+      <selection activeCell="E897" sqref="E897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
